--- a/temporary_files/logt_highu_int.xlsx
+++ b/temporary_files/logt_highu_int.xlsx
@@ -454,7 +454,7 @@
         <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
         <v>0.97</v>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="C4" t="n">
         <v>0.28</v>
@@ -712,7 +712,7 @@
         <v>0.39</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="E18" t="n">
         <v>0.56</v>
